--- a/combined_df.xlsx
+++ b/combined_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A429"/>
+  <dimension ref="A1:B429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2147 +442,3436 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Price</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>42009</v>
+      </c>
+      <c r="B2" t="n">
         <v>32900</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
+        <v>42016</v>
+      </c>
+      <c r="B3" t="n">
         <v>32500</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
+        <v>42023</v>
+      </c>
+      <c r="B4" t="n">
         <v>32000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
+        <v>42030</v>
+      </c>
+      <c r="B5" t="n">
         <v>30700</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="2" t="n">
+        <v>42037</v>
+      </c>
+      <c r="B6" t="n">
         <v>30300</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="2" t="n">
+        <v>42044</v>
+      </c>
+      <c r="B7" t="n">
         <v>30300</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="2" t="n">
+        <v>42051</v>
+      </c>
+      <c r="B8" t="n">
         <v>30100</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
+        <v>42058</v>
+      </c>
+      <c r="B9" t="n">
         <v>29400</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="2" t="n">
+        <v>42065</v>
+      </c>
+      <c r="B10" t="n">
         <v>29200</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
+        <v>42072</v>
+      </c>
+      <c r="B11" t="n">
         <v>29000</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="2" t="n">
+        <v>42079</v>
+      </c>
+      <c r="B12" t="n">
         <v>28700</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="2" t="n">
+        <v>42086</v>
+      </c>
+      <c r="B13" t="n">
         <v>27800</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="2" t="n">
+        <v>42093</v>
+      </c>
+      <c r="B14" t="n">
         <v>27200</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="2" t="n">
+        <v>42100</v>
+      </c>
+      <c r="B15" t="n">
         <v>26600</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="2" t="n">
+        <v>42107</v>
+      </c>
+      <c r="B16" t="n">
         <v>25700</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
+        <v>42114</v>
+      </c>
+      <c r="B17" t="n">
         <v>24800</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="2" t="n">
+        <v>42121</v>
+      </c>
+      <c r="B18" t="n">
         <v>24700</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="2" t="n">
+        <v>42128</v>
+      </c>
+      <c r="B19" t="n">
         <v>24300</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
+        <v>42135</v>
+      </c>
+      <c r="B20" t="n">
         <v>23900</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
+        <v>42142</v>
+      </c>
+      <c r="B21" t="n">
         <v>24000</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
+        <v>42149</v>
+      </c>
+      <c r="B22" t="n">
         <v>23700</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B23" t="n">
         <v>23500</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="B24" t="n">
         <v>23800</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
+        <v>42170</v>
+      </c>
+      <c r="B25" t="n">
         <v>24400</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
+        <v>42177</v>
+      </c>
+      <c r="B26" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
+        <v>42184</v>
+      </c>
+      <c r="B27" t="n">
         <v>25300</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
+        <v>42191</v>
+      </c>
+      <c r="B28" t="n">
         <v>25500</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
+        <v>42198</v>
+      </c>
+      <c r="B29" t="n">
         <v>25500</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
+        <v>42205</v>
+      </c>
+      <c r="B30" t="n">
         <v>25400</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
+        <v>42212</v>
+      </c>
+      <c r="B31" t="n">
         <v>25200</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
+        <v>42219</v>
+      </c>
+      <c r="B32" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
+        <v>42226</v>
+      </c>
+      <c r="B33" t="n">
         <v>24700</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
+        <v>42233</v>
+      </c>
+      <c r="B34" t="n">
         <v>24400</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
+        <v>42240</v>
+      </c>
+      <c r="B35" t="n">
         <v>24100</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B36" t="n">
         <v>24100</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
+        <v>42254</v>
+      </c>
+      <c r="B37" t="n">
         <v>23900</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
+        <v>42261</v>
+      </c>
+      <c r="B38" t="n">
         <v>24200</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
+        <v>42268</v>
+      </c>
+      <c r="B39" t="n">
         <v>24200</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
+        <v>42275</v>
+      </c>
+      <c r="B40" t="n">
         <v>24000</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
+        <v>42282</v>
+      </c>
+      <c r="B41" t="n">
         <v>24000</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
+        <v>42289</v>
+      </c>
+      <c r="B42" t="n">
         <v>23800</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
+        <v>42296</v>
+      </c>
+      <c r="B43" t="n">
         <v>23800</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
+        <v>42303</v>
+      </c>
+      <c r="B44" t="n">
         <v>24200</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B45" t="n">
         <v>24500</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B46" t="n">
         <v>24500</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="2" t="n">
+        <v>42324</v>
+      </c>
+      <c r="B47" t="n">
         <v>23950</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
+        <v>42331</v>
+      </c>
+      <c r="B48" t="n">
         <v>23750</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B49" t="n">
         <v>23100</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
+        <v>42345</v>
+      </c>
+      <c r="B50" t="n">
         <v>22800</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
+        <v>42352</v>
+      </c>
+      <c r="B51" t="n">
         <v>22000</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
+        <v>42359</v>
+      </c>
+      <c r="B52" t="n">
         <v>21700</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
+        <v>42366</v>
+      </c>
+      <c r="B53" t="n">
         <v>21300</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
+        <v>42373</v>
+      </c>
+      <c r="B54" t="n">
         <v>21300</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
+        <v>42380</v>
+      </c>
+      <c r="B55" t="n">
         <v>21300</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
+        <v>42387</v>
+      </c>
+      <c r="B56" t="n">
         <v>21200</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
+        <v>42394</v>
+      </c>
+      <c r="B57" t="n">
         <v>21000</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B58" t="n">
         <v>21000</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="B59" t="n">
         <v>21000</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
+        <v>42415</v>
+      </c>
+      <c r="B60" t="n">
         <v>21200</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
+        <v>42422</v>
+      </c>
+      <c r="B61" t="n">
         <v>21800</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B62" t="n">
         <v>22450</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
+        <v>42436</v>
+      </c>
+      <c r="B63" t="n">
         <v>23300</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
+        <v>42443</v>
+      </c>
+      <c r="B64" t="n">
         <v>23800</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
+        <v>42450</v>
+      </c>
+      <c r="B65" t="n">
         <v>25500</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
+        <v>42457</v>
+      </c>
+      <c r="B66" t="n">
         <v>26700</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B67" t="n">
         <v>29900</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
+        <v>42471</v>
+      </c>
+      <c r="B68" t="n">
         <v>29950</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
+        <v>42478</v>
+      </c>
+      <c r="B69" t="n">
         <v>31500</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
+        <v>42485</v>
+      </c>
+      <c r="B70" t="n">
         <v>31900</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
+        <v>42492</v>
+      </c>
+      <c r="B71" t="n">
         <v>40300</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="2" t="n">
+        <v>42499</v>
+      </c>
+      <c r="B72" t="n">
         <v>43500</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="2" t="n">
+        <v>42506</v>
+      </c>
+      <c r="B73" t="n">
         <v>43350</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="2" t="n">
+        <v>42513</v>
+      </c>
+      <c r="B74" t="n">
         <v>42950</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
+        <v>42520</v>
+      </c>
+      <c r="B75" t="n">
         <v>42000</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
+        <v>42527</v>
+      </c>
+      <c r="B76" t="n">
         <v>38300</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
+        <v>42534</v>
+      </c>
+      <c r="B77" t="n">
         <v>37500</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
+        <v>42541</v>
+      </c>
+      <c r="B78" t="n">
         <v>36800</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
+        <v>42548</v>
+      </c>
+      <c r="B79" t="n">
         <v>35400</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
+        <v>42555</v>
+      </c>
+      <c r="B80" t="n">
         <v>34400</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
+        <v>42562</v>
+      </c>
+      <c r="B81" t="n">
         <v>33400</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
+        <v>42569</v>
+      </c>
+      <c r="B82" t="n">
         <v>32500</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
+        <v>42576</v>
+      </c>
+      <c r="B83" t="n">
         <v>32000</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B84" t="n">
         <v>31000</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
+        <v>42590</v>
+      </c>
+      <c r="B85" t="n">
         <v>30200</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
+        <v>42597</v>
+      </c>
+      <c r="B86" t="n">
         <v>29200</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="2" t="n">
+        <v>42604</v>
+      </c>
+      <c r="B87" t="n">
         <v>28850</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
+        <v>42611</v>
+      </c>
+      <c r="B88" t="n">
         <v>28700</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
+        <v>42618</v>
+      </c>
+      <c r="B89" t="n">
         <v>28500</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
+        <v>42625</v>
+      </c>
+      <c r="B90" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="2" t="n">
+        <v>42632</v>
+      </c>
+      <c r="B91" t="n">
         <v>32000</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
+        <v>42639</v>
+      </c>
+      <c r="B92" t="n">
         <v>32500</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
+        <v>42646</v>
+      </c>
+      <c r="B93" t="n">
         <v>33300</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
+        <v>42653</v>
+      </c>
+      <c r="B94" t="n">
         <v>34300</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
+        <v>42660</v>
+      </c>
+      <c r="B95" t="n">
         <v>33700</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
+        <v>42667</v>
+      </c>
+      <c r="B96" t="n">
         <v>32200</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B97" t="n">
         <v>30400</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="2" t="n">
+        <v>42681</v>
+      </c>
+      <c r="B98" t="n">
         <v>30200</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
+        <v>42688</v>
+      </c>
+      <c r="B99" t="n">
         <v>29800</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
+        <v>42695</v>
+      </c>
+      <c r="B100" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
+        <v>42702</v>
+      </c>
+      <c r="B101" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
+        <v>42709</v>
+      </c>
+      <c r="B102" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="2" t="n">
+        <v>42716</v>
+      </c>
+      <c r="B103" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
+        <v>42723</v>
+      </c>
+      <c r="B104" t="n">
         <v>33000</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
+        <v>42730</v>
+      </c>
+      <c r="B105" t="n">
         <v>32500</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
+        <v>42737</v>
+      </c>
+      <c r="B106" t="n">
         <v>33750</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
+        <v>42744</v>
+      </c>
+      <c r="B107" t="n">
         <v>33750</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
+        <v>42751</v>
+      </c>
+      <c r="B108" t="n">
         <v>33750</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
+        <v>42758</v>
+      </c>
+      <c r="B109" t="n">
         <v>33750</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
+        <v>42765</v>
+      </c>
+      <c r="B110" t="n">
         <v>33000</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
+        <v>42772</v>
+      </c>
+      <c r="B111" t="n">
         <v>32600</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
+        <v>42779</v>
+      </c>
+      <c r="B112" t="n">
         <v>32000</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="2" t="n">
+        <v>42786</v>
+      </c>
+      <c r="B113" t="n">
         <v>31300</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
+        <v>42793</v>
+      </c>
+      <c r="B114" t="n">
         <v>30300</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
+        <v>42800</v>
+      </c>
+      <c r="B115" t="n">
         <v>30500</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
+        <v>42807</v>
+      </c>
+      <c r="B116" t="n">
         <v>30700</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
+        <v>42814</v>
+      </c>
+      <c r="B117" t="n">
         <v>30600</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
+        <v>42821</v>
+      </c>
+      <c r="B118" t="n">
         <v>30400</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
+        <v>42828</v>
+      </c>
+      <c r="B119" t="n">
         <v>29800</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
+        <v>42835</v>
+      </c>
+      <c r="B120" t="n">
         <v>29500</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
+        <v>42842</v>
+      </c>
+      <c r="B121" t="n">
         <v>28200</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
+        <v>42849</v>
+      </c>
+      <c r="B122" t="n">
         <v>27500</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B123" t="n">
         <v>26500</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
+        <v>42863</v>
+      </c>
+      <c r="B124" t="n">
         <v>26300</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
+        <v>42870</v>
+      </c>
+      <c r="B125" t="n">
         <v>26300</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
+        <v>42877</v>
+      </c>
+      <c r="B126" t="n">
         <v>26200</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
+        <v>42884</v>
+      </c>
+      <c r="B127" t="n">
         <v>26150</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
+        <v>42891</v>
+      </c>
+      <c r="B128" t="n">
         <v>26150</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
+        <v>42898</v>
+      </c>
+      <c r="B129" t="n">
         <v>26150</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
+        <v>42905</v>
+      </c>
+      <c r="B130" t="n">
         <v>26350</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
+        <v>42912</v>
+      </c>
+      <c r="B131" t="n">
         <v>26550</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
+        <v>42919</v>
+      </c>
+      <c r="B132" t="n">
         <v>26650</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
+        <v>42926</v>
+      </c>
+      <c r="B133" t="n">
         <v>28000</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
+        <v>42933</v>
+      </c>
+      <c r="B134" t="n">
         <v>28800</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
+        <v>42940</v>
+      </c>
+      <c r="B135" t="n">
         <v>29400</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B136" t="n">
         <v>29400</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="2" t="n">
+        <v>42954</v>
+      </c>
+      <c r="B137" t="n">
         <v>30900</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="2" t="n">
+        <v>42961</v>
+      </c>
+      <c r="B138" t="n">
         <v>33900</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
+        <v>42968</v>
+      </c>
+      <c r="B139" t="n">
         <v>35900</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
+        <v>42975</v>
+      </c>
+      <c r="B140" t="n">
         <v>36800</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
+        <v>42982</v>
+      </c>
+      <c r="B141" t="n">
         <v>38600</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
+        <v>42989</v>
+      </c>
+      <c r="B142" t="n">
         <v>39600</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
+        <v>42996</v>
+      </c>
+      <c r="B143" t="n">
         <v>38800</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
+        <v>43003</v>
+      </c>
+      <c r="B144" t="n">
         <v>38800</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
+        <v>43010</v>
+      </c>
+      <c r="B145" t="n">
         <v>37500</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
+        <v>43017</v>
+      </c>
+      <c r="B146" t="n">
         <v>37000</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
+        <v>43024</v>
+      </c>
+      <c r="B147" t="n">
         <v>35800</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="2" t="n">
+        <v>43031</v>
+      </c>
+      <c r="B148" t="n">
         <v>33800</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
+        <v>43038</v>
+      </c>
+      <c r="B149" t="n">
         <v>31500</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
+        <v>43045</v>
+      </c>
+      <c r="B150" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
+        <v>43052</v>
+      </c>
+      <c r="B151" t="n">
         <v>32500</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
+        <v>43059</v>
+      </c>
+      <c r="B152" t="n">
         <v>32500</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
+        <v>43066</v>
+      </c>
+      <c r="B153" t="n">
         <v>32000</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
+        <v>43073</v>
+      </c>
+      <c r="B154" t="n">
         <v>31500</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
+        <v>43080</v>
+      </c>
+      <c r="B155" t="n">
         <v>31700</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="2" t="n">
+        <v>43087</v>
+      </c>
+      <c r="B156" t="n">
         <v>31800</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
+        <v>43094</v>
+      </c>
+      <c r="B157" t="n">
         <v>34600</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B158" t="n">
         <v>35600</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
+        <v>43108</v>
+      </c>
+      <c r="B159" t="n">
         <v>35600</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
+        <v>43115</v>
+      </c>
+      <c r="B160" t="n">
         <v>35600</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
+        <v>43122</v>
+      </c>
+      <c r="B161" t="n">
         <v>35300</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
+        <v>43129</v>
+      </c>
+      <c r="B162" t="n">
         <v>34500</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
+        <v>43136</v>
+      </c>
+      <c r="B163" t="n">
         <v>33700</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="2" t="n">
+        <v>43143</v>
+      </c>
+      <c r="B164" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="2" t="n">
+        <v>43150</v>
+      </c>
+      <c r="B165" t="n">
         <v>33900</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="2" t="n">
+        <v>43157</v>
+      </c>
+      <c r="B166" t="n">
         <v>32700</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="2" t="n">
+        <v>43164</v>
+      </c>
+      <c r="B167" t="n">
         <v>32900</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
+        <v>43171</v>
+      </c>
+      <c r="B168" t="n">
         <v>33300</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="B169" t="n">
         <v>33600</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
+        <v>43185</v>
+      </c>
+      <c r="B170" t="n">
         <v>34800</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
+        <v>43192</v>
+      </c>
+      <c r="B171" t="n">
         <v>36100</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
+        <v>43199</v>
+      </c>
+      <c r="B172" t="n">
         <v>36100</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
+        <v>43206</v>
+      </c>
+      <c r="B173" t="n">
         <v>35900</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
+        <v>43213</v>
+      </c>
+      <c r="B174" t="n">
         <v>35900</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B175" t="n">
         <v>36400</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
+        <v>43227</v>
+      </c>
+      <c r="B176" t="n">
         <v>37900</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B177" t="n">
         <v>37700</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B178" t="n">
         <v>37900</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B179" t="n">
         <v>37900</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B180" t="n">
         <v>37600</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B181" t="n">
         <v>37400</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B182" t="n">
         <v>37400</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B183" t="n">
         <v>37100</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B184" t="n">
         <v>37100</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
+        <v>43290</v>
+      </c>
+      <c r="B185" t="n">
         <v>37200</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
+        <v>43297</v>
+      </c>
+      <c r="B186" t="n">
         <v>37800</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
+        <v>43304</v>
+      </c>
+      <c r="B187" t="n">
         <v>37500</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
+        <v>43311</v>
+      </c>
+      <c r="B188" t="n">
         <v>37500</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
+        <v>43318</v>
+      </c>
+      <c r="B189" t="n">
         <v>39400</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
+        <v>43325</v>
+      </c>
+      <c r="B190" t="n">
         <v>39650</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="2" t="n">
+        <v>43332</v>
+      </c>
+      <c r="B191" t="n">
         <v>40750</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
+      <c r="A192" s="2" t="n">
+        <v>43339</v>
+      </c>
+      <c r="B192" t="n">
         <v>43100</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
+        <v>43346</v>
+      </c>
+      <c r="B193" t="n">
         <v>48700</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
+        <v>43353</v>
+      </c>
+      <c r="B194" t="n">
         <v>48850</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
+        <v>43360</v>
+      </c>
+      <c r="B195" t="n">
         <v>48350</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
+        <v>43367</v>
+      </c>
+      <c r="B196" t="n">
         <v>44600</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B197" t="n">
         <v>42600</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="B198" t="n">
         <v>41500</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
+        <v>43388</v>
+      </c>
+      <c r="B199" t="n">
         <v>40800</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="B200" t="n">
         <v>39700</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="2" t="n">
+        <v>43402</v>
+      </c>
+      <c r="B201" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="2" t="n">
+        <v>43409</v>
+      </c>
+      <c r="B202" t="n">
         <v>38800</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="2" t="n">
+        <v>43416</v>
+      </c>
+      <c r="B203" t="n">
         <v>38300</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="B204" t="n">
         <v>38000</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="2" t="n">
+        <v>43430</v>
+      </c>
+      <c r="B205" t="n">
         <v>37600</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="2" t="n">
+        <v>43437</v>
+      </c>
+      <c r="B206" t="n">
         <v>37600</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="2" t="n">
+        <v>43444</v>
+      </c>
+      <c r="B207" t="n">
         <v>37300</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="2" t="n">
+        <v>43451</v>
+      </c>
+      <c r="B208" t="n">
         <v>37000</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="2" t="n">
+        <v>43458</v>
+      </c>
+      <c r="B209" t="n">
         <v>36700</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B210" t="n">
         <v>36000</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
+        <v>43472</v>
+      </c>
+      <c r="B211" t="n">
         <v>36000</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
+        <v>43479</v>
+      </c>
+      <c r="B212" t="n">
         <v>35700</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
+        <v>43486</v>
+      </c>
+      <c r="B213" t="n">
         <v>35300</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
+        <v>43493</v>
+      </c>
+      <c r="B214" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
+        <v>43500</v>
+      </c>
+      <c r="B215" t="n">
         <v>33800</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
+        <v>43507</v>
+      </c>
+      <c r="B216" t="n">
         <v>34550</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
+        <v>43514</v>
+      </c>
+      <c r="B217" t="n">
         <v>36000</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
+        <v>43521</v>
+      </c>
+      <c r="B218" t="n">
         <v>37700</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
+        <v>43528</v>
+      </c>
+      <c r="B219" t="n">
         <v>40200</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
+        <v>43535</v>
+      </c>
+      <c r="B220" t="n">
         <v>40200</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="B221" t="n">
         <v>39900</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="B222" t="n">
         <v>39400</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B223" t="n">
         <v>39300</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
+        <v>43563</v>
+      </c>
+      <c r="B224" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
+        <v>43570</v>
+      </c>
+      <c r="B225" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
+        <v>43577</v>
+      </c>
+      <c r="B226" t="n">
         <v>39300</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
+        <v>43584</v>
+      </c>
+      <c r="B227" t="n">
         <v>39300</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
+        <v>43591</v>
+      </c>
+      <c r="B228" t="n">
         <v>39300</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="B229" t="n">
         <v>40300</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
+        <v>43605</v>
+      </c>
+      <c r="B230" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="B231" t="n">
         <v>40200</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="B232" t="n">
         <v>40200</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
+        <v>43626</v>
+      </c>
+      <c r="B233" t="n">
         <v>40300</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
+        <v>43633</v>
+      </c>
+      <c r="B234" t="n">
         <v>41500</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
+        <v>43640</v>
+      </c>
+      <c r="B235" t="n">
         <v>40500</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B236" t="n">
         <v>40500</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
+        <v>43654</v>
+      </c>
+      <c r="B237" t="n">
         <v>40300</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="2" t="n">
+        <v>43661</v>
+      </c>
+      <c r="B238" t="n">
         <v>39800</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="2" t="n">
+        <v>43668</v>
+      </c>
+      <c r="B239" t="n">
         <v>39800</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="2" t="n">
+        <v>43675</v>
+      </c>
+      <c r="B240" t="n">
         <v>40200</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="2" t="n">
+        <v>43682</v>
+      </c>
+      <c r="B241" t="n">
         <v>40300</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="2" t="n">
+        <v>43689</v>
+      </c>
+      <c r="B242" t="n">
         <v>39200</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
+        <v>43696</v>
+      </c>
+      <c r="B243" t="n">
         <v>38700</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="B244" t="n">
         <v>38200</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
+        <v>43710</v>
+      </c>
+      <c r="B245" t="n">
         <v>37700</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
+        <v>43717</v>
+      </c>
+      <c r="B246" t="n">
         <v>36900</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
+        <v>43724</v>
+      </c>
+      <c r="B247" t="n">
         <v>36200</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
+        <v>43731</v>
+      </c>
+      <c r="B248" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B249" t="n">
         <v>34200</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
+        <v>43745</v>
+      </c>
+      <c r="B250" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
+        <v>43752</v>
+      </c>
+      <c r="B251" t="n">
         <v>33300</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="B252" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="B253" t="n">
         <v>33300</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
+        <v>43773</v>
+      </c>
+      <c r="B254" t="n">
         <v>33800</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
+        <v>43780</v>
+      </c>
+      <c r="B255" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
+        <v>43787</v>
+      </c>
+      <c r="B256" t="n">
         <v>32300</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
+        <v>43794</v>
+      </c>
+      <c r="B257" t="n">
         <v>32200</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
+        <v>43801</v>
+      </c>
+      <c r="B258" t="n">
         <v>31800</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
+        <v>43808</v>
+      </c>
+      <c r="B259" t="n">
         <v>31100</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
+        <v>43815</v>
+      </c>
+      <c r="B260" t="n">
         <v>30600</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
+        <v>43822</v>
+      </c>
+      <c r="B261" t="n">
         <v>31400</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
+        <v>43829</v>
+      </c>
+      <c r="B262" t="n">
         <v>32900</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
+        <v>43836</v>
+      </c>
+      <c r="B263" t="n">
         <v>32900</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
+        <v>43843</v>
+      </c>
+      <c r="B264" t="n">
         <v>33400</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
+        <v>43850</v>
+      </c>
+      <c r="B265" t="n">
         <v>32500</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
+        <v>43857</v>
+      </c>
+      <c r="B266" t="n">
         <v>32890</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
+        <v>43864</v>
+      </c>
+      <c r="B267" t="n">
         <v>33400</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
+        <v>43871</v>
+      </c>
+      <c r="B268" t="n">
         <v>32800</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
+        <v>43878</v>
+      </c>
+      <c r="B269" t="n">
         <v>32000</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="B270" t="n">
         <v>31500</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
+        <v>43892</v>
+      </c>
+      <c r="B271" t="n">
         <v>32500</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
+      <c r="A272" s="2" t="n">
+        <v>43899</v>
+      </c>
+      <c r="B272" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="2" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B273" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B274" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B275" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
+        <v>43927</v>
+      </c>
+      <c r="B276" t="n">
         <v>34500</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
+      <c r="A277" s="2" t="n">
+        <v>43934</v>
+      </c>
+      <c r="B277" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
+      <c r="A278" s="2" t="n">
+        <v>43941</v>
+      </c>
+      <c r="B278" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
+      <c r="A279" s="2" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B279" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="2" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B280" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="2" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B281" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B282" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B283" t="n">
         <v>33500</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B284" t="n">
         <v>33000</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B285" t="n">
         <v>33000</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B286" t="n">
         <v>33000</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
+      <c r="A287" s="2" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B287" t="n">
         <v>33700</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
+      <c r="A288" s="2" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B288" t="n">
         <v>34500</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
+      <c r="A289" s="2" t="n">
+        <v>44018</v>
+      </c>
+      <c r="B289" t="n">
         <v>34500</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
+      <c r="A290" s="2" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B290" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" s="2" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B291" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" s="2" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B292" t="n">
         <v>35100</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" s="2" t="n">
+        <v>44046</v>
+      </c>
+      <c r="B293" t="n">
         <v>35100</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
+      <c r="A294" s="2" t="n">
+        <v>44053</v>
+      </c>
+      <c r="B294" t="n">
         <v>35200</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
+      <c r="A295" s="2" t="n">
+        <v>44060</v>
+      </c>
+      <c r="B295" t="n">
         <v>35500</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
+      <c r="A296" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="B296" t="n">
         <v>36500</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
+      <c r="A297" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B297" t="n">
         <v>37200</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
+      <c r="A298" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="B298" t="n">
         <v>37500</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
+      <c r="A299" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="B299" t="n">
         <v>37500</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
+      <c r="A300" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="B300" t="n">
         <v>38000</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
+      <c r="A301" s="2" t="n">
+        <v>44102</v>
+      </c>
+      <c r="B301" t="n">
         <v>38500</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
+      <c r="A302" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="B302" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" s="2" t="n">
+        <v>44116</v>
+      </c>
+      <c r="B303" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="B304" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
+      <c r="A305" s="2" t="n">
+        <v>44130</v>
+      </c>
+      <c r="B305" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
+      <c r="A306" s="2" t="n">
+        <v>44137</v>
+      </c>
+      <c r="B306" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
+      <c r="A307" s="2" t="n">
+        <v>44144</v>
+      </c>
+      <c r="B307" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
+      <c r="A308" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="B308" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
+      <c r="A309" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="B309" t="n">
         <v>39500</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
+      <c r="A310" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B310" t="n">
         <v>41500</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" s="2" t="n">
+        <v>44172</v>
+      </c>
+      <c r="B311" t="n">
         <v>42500</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B312" t="n">
         <v>51000</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" s="2" t="n">
+        <v>44186</v>
+      </c>
+      <c r="B313" t="n">
         <v>58000</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n">
+      <c r="A314" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="B314" t="n">
         <v>61000</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="n">
+      <c r="A315" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="B315" t="n">
         <v>61000</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="n">
+      <c r="A316" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B316" t="n">
         <v>61000</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n">
+      <c r="A317" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B317" t="n">
         <v>62000</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n">
+      <c r="A318" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B318" t="n">
         <v>62000</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
+      <c r="A319" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B319" t="n">
         <v>59000</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
+      <c r="A320" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B320" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B321" t="n">
         <v>51500</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B322" t="n">
         <v>48500</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B323" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B324" t="n">
         <v>49000</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B325" t="n">
         <v>50500</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B326" t="n">
         <v>50800</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B327" t="n">
         <v>51500</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B328" t="n">
         <v>53500</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="n">
+      <c r="A329" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B329" t="n">
         <v>54500</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B330" t="n">
         <v>58500</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="B331" t="n">
         <v>60500</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
+      <c r="A332" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B332" t="n">
         <v>62500</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
+      <c r="A333" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B333" t="n">
         <v>63500</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="n">
+      <c r="A334" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="B334" t="n">
         <v>67000</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="n">
+      <c r="A335" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="B335" t="n">
         <v>71900</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n">
+      <c r="A336" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B336" t="n">
         <v>71900</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n">
+      <c r="A337" s="2" t="n">
+        <v>44354</v>
+      </c>
+      <c r="B337" t="n">
         <v>72500</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
+      <c r="A338" s="2" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B338" t="n">
         <v>74000</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
+      <c r="A339" s="2" t="n">
+        <v>44368</v>
+      </c>
+      <c r="B339" t="n">
         <v>74000</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
+      <c r="A340" s="2" t="n">
+        <v>44375</v>
+      </c>
+      <c r="B340" t="n">
         <v>74000</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="B341" t="n">
         <v>74000</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="B342" t="n">
         <v>73500</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
+        <v>44396</v>
+      </c>
+      <c r="B343" t="n">
         <v>72500</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
+        <v>44403</v>
+      </c>
+      <c r="B344" t="n">
         <v>71500</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B345" t="n">
         <v>69500</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n">
+      <c r="A346" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="B346" t="n">
         <v>66000</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
+      <c r="A347" s="2" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B347" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n">
+      <c r="A348" s="2" t="n">
+        <v>44431</v>
+      </c>
+      <c r="B348" t="n">
         <v>63500</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
+      <c r="A349" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="B349" t="n">
         <v>62000</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
+      <c r="A350" s="2" t="n">
+        <v>44445</v>
+      </c>
+      <c r="B350" t="n">
         <v>59000</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
+      <c r="A351" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B351" t="n">
         <v>56500</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="n">
+      <c r="A352" s="2" t="n">
+        <v>44459</v>
+      </c>
+      <c r="B352" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="n">
+      <c r="A353" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="B353" t="n">
         <v>54000</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="n">
+      <c r="A354" s="2" t="n">
+        <v>44473</v>
+      </c>
+      <c r="B354" t="n">
         <v>56800</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="n">
+      <c r="A355" s="2" t="n">
+        <v>44480</v>
+      </c>
+      <c r="B355" t="n">
         <v>59000</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
+      <c r="A356" s="2" t="n">
+        <v>44487</v>
+      </c>
+      <c r="B356" t="n">
         <v>64000</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n">
+      <c r="A357" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="B357" t="n">
         <v>73000</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
+      <c r="A358" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B358" t="n">
         <v>77000</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n">
+      <c r="A359" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="B359" t="n">
         <v>79000</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="n">
+      <c r="A360" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="B360" t="n">
         <v>78000</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="n">
+      <c r="A361" s="2" t="n">
+        <v>44522</v>
+      </c>
+      <c r="B361" t="n">
         <v>72500</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
+      <c r="A362" s="2" t="n">
+        <v>44529</v>
+      </c>
+      <c r="B362" t="n">
         <v>64000</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
+      <c r="A363" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="B363" t="n">
         <v>61500</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n">
+      <c r="A364" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="B364" t="n">
         <v>60500</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n">
+      <c r="A365" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="B365" t="n">
         <v>61500</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n">
+      <c r="A366" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="B366" t="n">
         <v>62500</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="n">
+      <c r="A367" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="B367" t="n">
         <v>63500</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="n">
+      <c r="A368" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B368" t="n">
         <v>63500</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="n">
+      <c r="A369" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B369" t="n">
         <v>63700</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n">
+      <c r="A370" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B370" t="n">
         <v>62500</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n">
+      <c r="A371" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B371" t="n">
         <v>62900</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
+      <c r="A372" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B372" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n">
+      <c r="A373" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B373" t="n">
         <v>65500</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="n">
+      <c r="A374" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="B374" t="n">
         <v>69000</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="n">
+      <c r="A375" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B375" t="n">
         <v>78000</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
+      <c r="A376" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B376" t="n">
         <v>77000</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
+      <c r="A377" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B377" t="n">
         <v>74000</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n">
+      <c r="A378" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B378" t="n">
         <v>67000</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="n">
+      <c r="A379" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B379" t="n">
         <v>69500</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="n">
+      <c r="A380" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B380" t="n">
         <v>69500</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="n">
+      <c r="A381" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B381" t="n">
         <v>67500</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="n">
+      <c r="A382" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B382" t="n">
         <v>64000</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n">
+      <c r="A383" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B383" t="n">
         <v>61500</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="n">
+      <c r="A384" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B384" t="n">
         <v>58000</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="n">
+      <c r="A385" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B385" t="n">
         <v>56000</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="n">
+      <c r="A386" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B386" t="n">
         <v>54000</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B387" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B388" t="n">
         <v>46000</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="n">
+      <c r="A389" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B389" t="n">
         <v>43500</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="n">
+      <c r="A390" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B390" t="n">
         <v>42000</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
+      <c r="A391" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B391" t="n">
         <v>43000</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
+      <c r="A392" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B392" t="n">
         <v>44000</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
+      <c r="A393" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B393" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
+      <c r="A394" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B394" t="n">
         <v>45500</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
+      <c r="A395" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B395" t="n">
         <v>47000</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="n">
+      <c r="A396" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B396" t="n">
         <v>47500</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="n">
+      <c r="A397" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B397" t="n">
         <v>47500</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="n">
+      <c r="A398" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B398" t="n">
         <v>49000</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="n">
+      <c r="A399" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B399" t="n">
         <v>47500</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="n">
+      <c r="A400" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B400" t="n">
         <v>46500</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="n">
+      <c r="A401" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B401" t="n">
         <v>46000</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="n">
+      <c r="A402" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B402" t="n">
         <v>46000</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="n">
+      <c r="A403" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B403" t="n">
         <v>46000</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="n">
+      <c r="A404" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B404" t="n">
         <v>46000</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="n">
+      <c r="A405" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B405" t="n">
         <v>45500</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="n">
+      <c r="A406" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B406" t="n">
         <v>45500</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="n">
+      <c r="A407" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B407" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="n">
+      <c r="A408" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B408" t="n">
         <v>44000</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="n">
+      <c r="A409" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B409" t="n">
         <v>43000</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="n">
+      <c r="A410" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B410" t="n">
         <v>42000</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="n">
+      <c r="A411" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B411" t="n">
         <v>41500</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="n">
+      <c r="A412" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B412" t="n">
         <v>41000</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="n">
+      <c r="A413" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B413" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="n">
+      <c r="A414" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B414" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="n">
+      <c r="A415" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="B415" t="n">
         <v>40500</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="n">
+      <c r="A416" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="B416" t="n">
         <v>41700</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="n">
+      <c r="A417" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="B417" t="n">
         <v>41700</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="n">
+      <c r="A418" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B418" t="n">
         <v>42500</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="n">
+      <c r="A419" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B419" t="n">
         <v>42700</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="n">
+      <c r="A420" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B420" t="n">
         <v>42700</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="n">
+      <c r="A421" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B421" t="n">
         <v>42700</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="n">
+      <c r="A422" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B422" t="n">
         <v>42800</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="n">
+      <c r="A423" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B423" t="n">
         <v>42800</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="n">
+      <c r="A424" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B424" t="n">
         <v>44500</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="n">
+      <c r="A425" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B425" t="n">
         <v>44500</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="n">
+      <c r="A426" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B426" t="n">
         <v>46000</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="n">
+      <c r="A427" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B427" t="n">
         <v>49200</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="n">
+      <c r="A428" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B428" t="n">
         <v>53700</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="n">
+      <c r="A429" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B429" t="n">
         <v>55500</v>
       </c>
     </row>
